--- a/model/Outputs/8. Fixed RE/No PV/Output Files/50/Output_0_40.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/50/Output_0_40.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>523516.2519601397</v>
+        <v>1118676273.631238</v>
       </c>
     </row>
   </sheetData>
